--- a/Xindus_PerfReport_Antutu.xlsx
+++ b/Xindus_PerfReport_Antutu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Antutu_totalScore</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>iteration 0</t>
-  </si>
-  <si>
-    <t>iteration 1</t>
   </si>
 </sst>
 </file>
@@ -137,29 +134,23 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>Sheet2!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$3</c:f>
+              <c:f>Sheet2!$B$2:$B$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>462084</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>462084</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>461099</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -186,29 +177,23 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>Sheet2!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$3</c:f>
+              <c:f>Sheet2!$C$2:$C$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>136577</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>136577</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>136902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -235,29 +220,23 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>Sheet2!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$3</c:f>
+              <c:f>Sheet2!$D$2:$D$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>174061</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>174061</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>173565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -284,29 +263,23 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>Sheet2!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$3</c:f>
+              <c:f>Sheet2!$E$2:$E$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>75971</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75971</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>75664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -333,29 +306,23 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
+              <c:f>Sheet2!$A$2:$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$3</c:f>
+              <c:f>Sheet2!$F$2:$F$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>75475</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>75475</c:v>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>74968</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -761,7 +728,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,39 +756,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>462084</v>
+        <v>461099</v>
       </c>
       <c r="C2">
-        <v>136577</v>
+        <v>136902</v>
       </c>
       <c r="D2">
-        <v>174061</v>
+        <v>173565</v>
       </c>
       <c r="E2">
-        <v>75971</v>
+        <v>75664</v>
       </c>
       <c r="F2">
-        <v>75475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>462084</v>
-      </c>
-      <c r="C3">
-        <v>136577</v>
-      </c>
-      <c r="D3">
-        <v>174061</v>
-      </c>
-      <c r="E3">
-        <v>75971</v>
-      </c>
-      <c r="F3">
-        <v>75475</v>
+        <v>74968</v>
       </c>
     </row>
   </sheetData>

--- a/Xindus_PerfReport_Antutu.xlsx
+++ b/Xindus_PerfReport_Antutu.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Antutu_totalScore</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>iteration 0</t>
+  </si>
+  <si>
+    <t>iteration 1</t>
   </si>
 </sst>
 </file>
@@ -134,23 +137,29 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$B$2:$B$2</c:f>
+              <c:f>Sheet2!$B$2:$B$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>461099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>461286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -177,23 +186,29 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$C$2:$C$2</c:f>
+              <c:f>Sheet2!$C$2:$C$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>136902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136725</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -220,23 +235,29 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$D$2:$D$2</c:f>
+              <c:f>Sheet2!$D$2:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>173565</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>173623</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -263,23 +284,29 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$E$2:$E$2</c:f>
+              <c:f>Sheet2!$E$2:$E$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>75664</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -306,23 +333,29 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet2!$A$2:$A$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
+              <c:f>Sheet2!$A$2:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>iteration 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>iteration 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet2!$F$2:$F$2</c:f>
+              <c:f>Sheet2!$F$2:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>74968</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75366</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -728,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -771,6 +804,26 @@
         <v>74968</v>
       </c>
     </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>461286</v>
+      </c>
+      <c r="C3">
+        <v>136725</v>
+      </c>
+      <c r="D3">
+        <v>173623</v>
+      </c>
+      <c r="E3">
+        <v>75572</v>
+      </c>
+      <c r="F3">
+        <v>75366</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
